--- a/RMSE_Tempalte.xlsx
+++ b/RMSE_Tempalte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDA4741-5B55-4B37-A78B-C93546BBD67A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08BE799-6A90-4460-A50F-8E33434BABC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{200507F2-3246-4AFF-9532-79C7BAA65EFF}"/>
   </bookViews>
@@ -561,33 +561,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,129 +719,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="140">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -777,6 +777,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -787,6 +797,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -822,6 +852,1266 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1147,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD081262-DF15-4375-976A-A3FD470CC623}">
   <dimension ref="A2:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S81" sqref="S81"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1160,46 +2450,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="38" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="38" t="s">
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
     </row>
     <row r="3" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +2552,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8">
@@ -1310,7 +2600,7 @@
       <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1376,7 +2666,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -1442,7 +2732,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1508,7 +2798,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="15">
         <v>4</v>
       </c>
@@ -1598,46 +2888,46 @@
       <c r="V9" s="19"/>
     </row>
     <row r="10" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="37" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="37" t="s">
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="37" t="s">
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="38" t="s">
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
     </row>
     <row r="11" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1700,7 +2990,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="21">
@@ -1748,7 +3038,7 @@
       <c r="V12" s="10"/>
     </row>
     <row r="13" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="23">
         <v>1</v>
       </c>
@@ -1814,7 +3104,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="23">
         <v>2</v>
       </c>
@@ -1880,7 +3170,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="23">
         <v>3</v>
       </c>
@@ -1946,7 +3236,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="25">
         <v>4</v>
       </c>
@@ -2030,34 +3320,34 @@
       <c r="P17" s="19"/>
     </row>
     <row r="18" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="37" t="s">
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="37" t="s">
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="37" t="s">
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="39"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="69"/>
       <c r="S18" s="27" t="s">
         <v>10</v>
       </c>
@@ -2066,10 +3356,10 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
@@ -2122,7 +3412,7 @@
       <c r="T19" s="6"/>
     </row>
     <row r="20" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="21">
@@ -2168,7 +3458,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="23">
         <v>1</v>
       </c>
@@ -2228,7 +3518,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="23">
         <v>2</v>
       </c>
@@ -2288,7 +3578,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="23">
         <v>3</v>
       </c>
@@ -2348,7 +3638,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="25">
         <v>4</v>
       </c>
@@ -2408,31 +3698,31 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="69"/>
+      <c r="C26" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="37" t="s">
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="38" t="s">
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="5" t="s">
         <v>4</v>
       </c>
@@ -2457,10 +3747,10 @@
       <c r="J27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="41"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="8">
@@ -2498,7 +3788,7 @@
       <c r="V28" s="33"/>
     </row>
     <row r="29" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="4">
         <v>1</v>
       </c>
@@ -2531,7 +3821,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="4">
         <v>2</v>
       </c>
@@ -2564,7 +3854,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="4">
         <v>3</v>
       </c>
@@ -2597,7 +3887,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="15">
         <v>4</v>
       </c>
@@ -2630,66 +3920,66 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
     </row>
     <row r="35" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="37" t="s">
+      <c r="B35" s="69"/>
+      <c r="C35" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="37" t="s">
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="37" t="s">
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="37" t="s">
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="37" t="s">
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="5" t="s">
         <v>4</v>
       </c>
@@ -2738,10 +4028,10 @@
       <c r="R36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="S36" s="40"/>
+      <c r="S36" s="71"/>
     </row>
     <row r="37" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="8">
@@ -2784,7 +4074,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="4">
         <v>1</v>
       </c>
@@ -2841,7 +4131,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="4">
         <v>2</v>
       </c>
@@ -2898,7 +4188,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="4">
         <v>3</v>
       </c>
@@ -2955,7 +4245,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="15">
         <v>4</v>
       </c>
@@ -3012,66 +4302,66 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
     </row>
     <row r="44" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="37" t="s">
+      <c r="B44" s="69"/>
+      <c r="C44" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="37" t="s">
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="37" t="s">
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="37" t="s">
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="37" t="s">
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="42"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
@@ -3120,10 +4410,10 @@
       <c r="R45" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="S45" s="40"/>
+      <c r="S45" s="71"/>
     </row>
     <row r="46" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="8">
@@ -3166,7 +4456,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="4">
         <v>1</v>
       </c>
@@ -3223,7 +4513,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+      <c r="A48" s="81"/>
       <c r="B48" s="4">
         <v>2</v>
       </c>
@@ -3280,7 +4570,7 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="4">
         <v>3</v>
       </c>
@@ -3337,7 +4627,7 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="15">
         <v>4</v>
       </c>
@@ -3394,1386 +4684,1386 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50" t="s">
+      <c r="B52" s="75"/>
+      <c r="C52" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50" t="s">
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50" t="s">
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="50" t="s">
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="75"/>
+      <c r="O52" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="50" t="s">
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="75"/>
+      <c r="S52" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="T52" s="48"/>
-      <c r="U52" s="48"/>
-      <c r="V52" s="48"/>
+      <c r="T52" s="74"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="74"/>
     </row>
     <row r="53" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="53" t="s">
+      <c r="B53" s="77"/>
+      <c r="C53" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G53" s="53" t="s">
+      <c r="G53" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="54" t="s">
+      <c r="H53" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I53" s="54" t="s">
+      <c r="I53" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J53" s="55" t="s">
+      <c r="J53" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="K53" s="54" t="s">
+      <c r="K53" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L53" s="54" t="s">
+      <c r="L53" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M53" s="54" t="s">
+      <c r="M53" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N53" s="55" t="s">
+      <c r="N53" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="53" t="s">
+      <c r="O53" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P53" s="54" t="s">
+      <c r="P53" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Q53" s="54" t="s">
+      <c r="Q53" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="R53" s="55" t="s">
+      <c r="R53" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="S53" s="54" t="s">
+      <c r="S53" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="T53" s="54" t="s">
+      <c r="T53" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="U53" s="54" t="s">
+      <c r="U53" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="V53" s="54" t="s">
+      <c r="V53" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="57">
+      <c r="B54" s="37">
         <v>0</v>
       </c>
-      <c r="C54" s="58">
+      <c r="C54" s="38">
         <v>2.1036269430051813</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="59">
+      <c r="E54" s="39">
         <v>2.7236614853195165</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F54" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G54" s="58">
+      <c r="G54" s="38">
         <v>2.3721934369602766</v>
       </c>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I54" s="59">
+      <c r="I54" s="39">
         <v>2.883419689119171</v>
       </c>
-      <c r="J54" s="60" t="s">
+      <c r="J54" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K54" s="59">
+      <c r="K54" s="39">
         <v>1.7888601036269431</v>
       </c>
-      <c r="L54" s="59" t="s">
+      <c r="L54" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="59">
+      <c r="M54" s="39">
         <v>2.0664939550949915</v>
       </c>
-      <c r="N54" s="60" t="s">
+      <c r="N54" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="O54" s="58">
+      <c r="O54" s="38">
         <v>2.5591537132987909</v>
       </c>
-      <c r="P54" s="59" t="s">
+      <c r="P54" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="Q54" s="59">
+      <c r="Q54" s="39">
         <v>1.8950777202072542</v>
       </c>
-      <c r="R54" s="60" t="s">
+      <c r="R54" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="S54" s="59">
+      <c r="S54" s="39">
         <v>2.4490500863557858</v>
       </c>
-      <c r="T54" s="59" t="s">
+      <c r="T54" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="U54" s="59">
+      <c r="U54" s="39">
         <v>2.4503454231433506</v>
       </c>
-      <c r="V54" s="59" t="s">
+      <c r="V54" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="62">
+      <c r="A55" s="79"/>
+      <c r="B55" s="41">
         <v>1</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="42">
         <v>1.3078084555651424</v>
       </c>
-      <c r="D55" s="64">
+      <c r="D55" s="43">
         <v>1.2262726488352027</v>
       </c>
-      <c r="E55" s="64">
+      <c r="E55" s="43">
         <v>1.2687661777394303</v>
       </c>
-      <c r="F55" s="65">
+      <c r="F55" s="44">
         <v>1.1184210526315788</v>
       </c>
-      <c r="G55" s="63">
+      <c r="G55" s="42">
         <v>1.3690681622088008</v>
       </c>
-      <c r="H55" s="64">
+      <c r="H55" s="43">
         <v>1.3039257981018118</v>
       </c>
-      <c r="I55" s="64">
+      <c r="I55" s="43">
         <v>1.3364969801553062</v>
       </c>
-      <c r="J55" s="65">
+      <c r="J55" s="44">
         <v>1.2251941328731664</v>
       </c>
-      <c r="K55" s="64">
+      <c r="K55" s="43">
         <v>1.3352027610008628</v>
       </c>
-      <c r="L55" s="64">
+      <c r="L55" s="43">
         <v>1.2200172562553926</v>
       </c>
-      <c r="M55" s="64">
+      <c r="M55" s="43">
         <v>1.5338654012079378</v>
       </c>
-      <c r="N55" s="65">
+      <c r="N55" s="44">
         <v>1.2931406384814494</v>
       </c>
-      <c r="O55" s="63">
+      <c r="O55" s="42">
         <v>1.5450819672131149</v>
       </c>
-      <c r="P55" s="64">
+      <c r="P55" s="43">
         <v>1.3352027610008628</v>
       </c>
-      <c r="Q55" s="64">
+      <c r="Q55" s="43">
         <v>1.2868852459016393</v>
       </c>
-      <c r="R55" s="65">
+      <c r="R55" s="44">
         <v>1.2827868852459017</v>
       </c>
-      <c r="S55" s="64">
+      <c r="S55" s="43">
         <v>1.4637618636755823</v>
       </c>
-      <c r="T55" s="64">
+      <c r="T55" s="43">
         <v>1.3531061259706643</v>
       </c>
-      <c r="U55" s="64">
+      <c r="U55" s="43">
         <v>1.386755823986195</v>
       </c>
-      <c r="V55" s="64">
+      <c r="V55" s="43">
         <v>1.2732959447799825</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="62">
+      <c r="A56" s="79"/>
+      <c r="B56" s="41">
         <v>2</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C56" s="42">
         <v>1.1567065073041169</v>
       </c>
-      <c r="D56" s="64">
+      <c r="D56" s="43">
         <v>1.1208499335989377</v>
       </c>
-      <c r="E56" s="64">
+      <c r="E56" s="43">
         <v>1.153386454183267</v>
       </c>
-      <c r="F56" s="65">
+      <c r="F56" s="44">
         <v>1.1201859229747677</v>
       </c>
-      <c r="G56" s="63">
+      <c r="G56" s="42">
         <v>1.1525011066843736</v>
       </c>
-      <c r="H56" s="64">
+      <c r="H56" s="43">
         <v>1.1423196104471005</v>
       </c>
-      <c r="I56" s="64">
+      <c r="I56" s="43">
         <v>1.1482957060646304</v>
       </c>
-      <c r="J56" s="65">
+      <c r="J56" s="44">
         <v>1.1356795042054006</v>
       </c>
-      <c r="K56" s="64">
+      <c r="K56" s="43">
         <v>1.2330677290836654</v>
       </c>
-      <c r="L56" s="64">
+      <c r="L56" s="43">
         <v>1.071270473660912</v>
       </c>
-      <c r="M56" s="64">
+      <c r="M56" s="43">
         <v>1.3284639220894201</v>
       </c>
-      <c r="N56" s="65">
+      <c r="N56" s="44">
         <v>1.1155378486055778</v>
       </c>
-      <c r="O56" s="63">
+      <c r="O56" s="42">
         <v>1.3778220451527223</v>
       </c>
-      <c r="P56" s="64">
+      <c r="P56" s="43">
         <v>1.2613988490482515</v>
       </c>
-      <c r="Q56" s="64">
+      <c r="Q56" s="43">
         <v>1.0509074811863657</v>
       </c>
-      <c r="R56" s="65">
+      <c r="R56" s="44">
         <v>1.3359893758300132</v>
       </c>
-      <c r="S56" s="64">
+      <c r="S56" s="43">
         <v>1.1861443116423196</v>
       </c>
-      <c r="T56" s="64">
+      <c r="T56" s="43">
         <v>1.1626826029216468</v>
       </c>
-      <c r="U56" s="64">
+      <c r="U56" s="43">
         <v>1.1735281097830899</v>
       </c>
-      <c r="V56" s="64">
+      <c r="V56" s="43">
         <v>1.1544931385568837</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="62">
+      <c r="A57" s="79"/>
+      <c r="B57" s="41">
         <v>3</v>
       </c>
-      <c r="C57" s="63">
+      <c r="C57" s="42">
         <v>1.1145574855252274</v>
       </c>
-      <c r="D57" s="64">
+      <c r="D57" s="43">
         <v>1.1344086021505375</v>
       </c>
-      <c r="E57" s="64">
+      <c r="E57" s="43">
         <v>1.1435070306038049</v>
       </c>
-      <c r="F57" s="65">
+      <c r="F57" s="44">
         <v>1.2204301075268817</v>
       </c>
-      <c r="G57" s="63">
+      <c r="G57" s="42">
         <v>1.0533498759305211</v>
       </c>
-      <c r="H57" s="64">
+      <c r="H57" s="43">
         <v>1.0942928039702233</v>
       </c>
-      <c r="I57" s="64">
+      <c r="I57" s="43">
         <v>1.075268817204301</v>
       </c>
-      <c r="J57" s="65">
+      <c r="J57" s="44">
         <v>1.1360628618693134</v>
       </c>
-      <c r="K57" s="64">
+      <c r="K57" s="43">
         <v>1.1629445822994209</v>
       </c>
-      <c r="L57" s="64">
+      <c r="L57" s="43">
         <v>0.80355665839536805</v>
       </c>
-      <c r="M57" s="64">
+      <c r="M57" s="43">
         <v>1.1199338296112489</v>
       </c>
-      <c r="N57" s="65">
+      <c r="N57" s="44">
         <v>0.84739454094292799</v>
       </c>
-      <c r="O57" s="63">
+      <c r="O57" s="42">
         <v>1.1526054590570718</v>
       </c>
-      <c r="P57" s="64">
+      <c r="P57" s="43">
         <v>1.0665839536807278</v>
       </c>
-      <c r="Q57" s="64">
+      <c r="Q57" s="43">
         <v>0.93548387096774188</v>
       </c>
-      <c r="R57" s="65">
+      <c r="R57" s="44">
         <v>1.454921422663358</v>
       </c>
-      <c r="S57" s="64">
+      <c r="S57" s="43">
         <v>0.92390405293631095</v>
       </c>
-      <c r="T57" s="64">
+      <c r="T57" s="43">
         <v>0.92969396195202647</v>
       </c>
-      <c r="U57" s="64">
+      <c r="U57" s="43">
         <v>0.92679900744416877</v>
       </c>
-      <c r="V57" s="64">
+      <c r="V57" s="43">
         <v>0.93755169561621166</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="67">
+      <c r="A58" s="80"/>
+      <c r="B58" s="45">
         <v>4</v>
       </c>
-      <c r="C58" s="68">
+      <c r="C58" s="46">
         <v>0.98303229337712106</v>
       </c>
-      <c r="D58" s="69">
+      <c r="D58" s="47">
         <v>1.0246305418719213</v>
       </c>
-      <c r="E58" s="69">
+      <c r="E58" s="47">
         <v>1.0552818828680897</v>
       </c>
-      <c r="F58" s="70">
+      <c r="F58" s="48">
         <v>1.1713191023535852</v>
       </c>
-      <c r="G58" s="68">
+      <c r="G58" s="46">
         <v>0.88834154351395733</v>
       </c>
-      <c r="H58" s="69">
+      <c r="H58" s="47">
         <v>0.92939244663382592</v>
       </c>
-      <c r="I58" s="69">
+      <c r="I58" s="47">
         <v>0.96004378762999454</v>
       </c>
-      <c r="J58" s="70">
+      <c r="J58" s="48">
         <v>1.0290093048713738</v>
       </c>
-      <c r="K58" s="69">
+      <c r="K58" s="47">
         <v>1.3251231527093594</v>
       </c>
-      <c r="L58" s="69">
+      <c r="L58" s="47">
         <v>1.0021893814997263</v>
       </c>
-      <c r="M58" s="69">
+      <c r="M58" s="47">
         <v>0.6732348111658456</v>
       </c>
-      <c r="N58" s="70">
+      <c r="N58" s="48">
         <v>0.4980842911877395</v>
       </c>
-      <c r="O58" s="68">
+      <c r="O58" s="46">
         <v>1.1483305966064585</v>
       </c>
-      <c r="P58" s="69">
+      <c r="P58" s="47">
         <v>0.98522167487684731</v>
       </c>
-      <c r="Q58" s="69">
+      <c r="Q58" s="47">
         <v>1.2058018609742747</v>
       </c>
-      <c r="R58" s="70">
+      <c r="R58" s="48">
         <v>1.314176245210728</v>
       </c>
-      <c r="S58" s="69">
+      <c r="S58" s="47">
         <v>0.87684729064039413</v>
       </c>
-      <c r="T58" s="69">
+      <c r="T58" s="47">
         <v>0.86316365626710456</v>
       </c>
-      <c r="U58" s="69">
+      <c r="U58" s="47">
         <v>0.87301587301587302</v>
       </c>
-      <c r="V58" s="69">
+      <c r="V58" s="47">
         <v>0.84838533114395187</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
-      <c r="U59" s="71"/>
-      <c r="V59" s="71"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
     </row>
     <row r="60" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="50" t="s">
+      <c r="B60" s="75"/>
+      <c r="C60" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="50" t="s">
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="50" t="s">
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="50" t="s">
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="75"/>
+      <c r="O60" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="50" t="s">
+      <c r="P60" s="74"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="T60" s="48"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="48"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
+      <c r="V60" s="74"/>
     </row>
     <row r="61" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="53" t="s">
+      <c r="B61" s="77"/>
+      <c r="C61" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="54" t="s">
+      <c r="E61" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="53" t="s">
+      <c r="G61" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="54" t="s">
+      <c r="H61" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I61" s="54" t="s">
+      <c r="I61" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J61" s="55" t="s">
+      <c r="J61" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="K61" s="53" t="s">
+      <c r="K61" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L61" s="54" t="s">
+      <c r="L61" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M61" s="54" t="s">
+      <c r="M61" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N61" s="55" t="s">
+      <c r="N61" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="53" t="s">
+      <c r="O61" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P61" s="54" t="s">
+      <c r="P61" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Q61" s="54" t="s">
+      <c r="Q61" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="R61" s="55" t="s">
+      <c r="R61" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="S61" s="54" t="s">
+      <c r="S61" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="T61" s="54" t="s">
+      <c r="T61" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="U61" s="54" t="s">
+      <c r="U61" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="V61" s="54" t="s">
+      <c r="V61" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="73">
+      <c r="B62" s="51">
         <v>0</v>
       </c>
-      <c r="C62" s="58">
+      <c r="C62" s="38">
         <v>2.5660621761658033</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="74">
+      <c r="E62" s="52">
         <v>2.5820379965457692</v>
       </c>
-      <c r="F62" s="60" t="s">
+      <c r="F62" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="58">
+      <c r="G62" s="38">
         <v>1.5734024179620036</v>
       </c>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I62" s="59">
+      <c r="I62" s="39">
         <v>1.1394645941278065</v>
       </c>
-      <c r="J62" s="60" t="s">
+      <c r="J62" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K62" s="58">
+      <c r="K62" s="38">
         <v>1.9831606217616582</v>
       </c>
-      <c r="L62" s="59" t="s">
+      <c r="L62" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M62" s="59">
+      <c r="M62" s="39">
         <v>2.8890328151986187</v>
       </c>
-      <c r="N62" s="60" t="s">
+      <c r="N62" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="O62" s="58">
+      <c r="O62" s="38">
         <v>1.9831606217616582</v>
       </c>
-      <c r="P62" s="59" t="s">
+      <c r="P62" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="Q62" s="59">
+      <c r="Q62" s="39">
         <v>2.5181347150259068</v>
       </c>
-      <c r="R62" s="60" t="s">
+      <c r="R62" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="S62" s="59">
+      <c r="S62" s="39">
         <v>2.050086355785838</v>
       </c>
-      <c r="T62" s="59" t="s">
+      <c r="T62" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="U62" s="59">
+      <c r="U62" s="39">
         <v>1.4330742659758204</v>
       </c>
-      <c r="V62" s="59" t="s">
+      <c r="V62" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="75">
+      <c r="A63" s="79"/>
+      <c r="B63" s="53">
         <v>1</v>
       </c>
-      <c r="C63" s="63">
+      <c r="C63" s="42">
         <v>1.337144089732528</v>
       </c>
-      <c r="D63" s="64">
+      <c r="D63" s="43">
         <v>1.3030629853321829</v>
       </c>
-      <c r="E63" s="76">
+      <c r="E63" s="54">
         <v>1.3132010353753236</v>
       </c>
-      <c r="F63" s="65">
+      <c r="F63" s="44">
         <v>1.2959447799827437</v>
       </c>
-      <c r="G63" s="63">
+      <c r="G63" s="42">
         <v>1.1796807592752374</v>
       </c>
-      <c r="H63" s="64">
+      <c r="H63" s="43">
         <v>1.1371872303710095</v>
       </c>
-      <c r="I63" s="64">
+      <c r="I63" s="43">
         <v>1.1143226919758413</v>
       </c>
-      <c r="J63" s="65">
+      <c r="J63" s="44">
         <v>1.0261000862812768</v>
       </c>
-      <c r="K63" s="63">
+      <c r="K63" s="42">
         <v>1.5390422778257118</v>
       </c>
-      <c r="L63" s="64">
+      <c r="L63" s="43">
         <v>1.1264020707506472</v>
       </c>
-      <c r="M63" s="64">
+      <c r="M63" s="43">
         <v>1.5562985332182915</v>
       </c>
-      <c r="N63" s="65">
+      <c r="N63" s="44">
         <v>1.4305435720448663</v>
       </c>
-      <c r="O63" s="63">
+      <c r="O63" s="42">
         <v>1.6173425366695426</v>
       </c>
-      <c r="P63" s="64">
+      <c r="P63" s="43">
         <v>1.1264020707506472</v>
       </c>
-      <c r="Q63" s="64">
+      <c r="Q63" s="43">
         <v>1.5330025884383089</v>
       </c>
-      <c r="R63" s="65">
+      <c r="R63" s="44">
         <v>1.1264020707506472</v>
       </c>
-      <c r="S63" s="64">
+      <c r="S63" s="43">
         <v>1.435504745470233</v>
       </c>
-      <c r="T63" s="64">
+      <c r="T63" s="43">
         <v>1.265746333045729</v>
       </c>
-      <c r="U63" s="64">
+      <c r="U63" s="43">
         <v>1.2687661777394303</v>
       </c>
-      <c r="V63" s="64">
+      <c r="V63" s="43">
         <v>1.1967213114754098</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="75">
+      <c r="A64" s="79"/>
+      <c r="B64" s="53">
         <v>2</v>
       </c>
-      <c r="C64" s="63">
+      <c r="C64" s="42">
         <v>1.0624169986719787</v>
       </c>
-      <c r="D64" s="64">
+      <c r="D64" s="43">
         <v>1.0752545374059319</v>
       </c>
-      <c r="E64" s="76">
+      <c r="E64" s="54">
         <v>1.0517928286852589</v>
       </c>
-      <c r="F64" s="65">
+      <c r="F64" s="44">
         <v>1.0721558211598052</v>
       </c>
-      <c r="G64" s="63">
+      <c r="G64" s="42">
         <v>1.092740150509075</v>
       </c>
-      <c r="H64" s="64">
+      <c r="H64" s="43">
         <v>1.1593625498007969</v>
       </c>
-      <c r="I64" s="64">
+      <c r="I64" s="43">
         <v>1.152722443559097</v>
       </c>
-      <c r="J64" s="65">
+      <c r="J64" s="44">
         <v>1.0544488711819391</v>
       </c>
-      <c r="K64" s="63">
+      <c r="K64" s="42">
         <v>1.2060646303674192</v>
       </c>
-      <c r="L64" s="64">
+      <c r="L64" s="43">
         <v>1.0431606905710491</v>
       </c>
-      <c r="M64" s="64">
+      <c r="M64" s="43">
         <v>1.2144754316069057</v>
       </c>
-      <c r="N64" s="65">
+      <c r="N64" s="44">
         <v>1.0938468348826915</v>
       </c>
-      <c r="O64" s="63">
+      <c r="O64" s="42">
         <v>1.4506418769366978</v>
       </c>
-      <c r="P64" s="64">
+      <c r="P64" s="43">
         <v>1.2797698096502879</v>
       </c>
-      <c r="Q64" s="64">
+      <c r="Q64" s="43">
         <v>1.3990703851261621</v>
       </c>
-      <c r="R64" s="65">
+      <c r="R64" s="44">
         <v>1.3260292164674634</v>
       </c>
-      <c r="S64" s="64">
+      <c r="S64" s="43">
         <v>1.4083665338645419</v>
       </c>
-      <c r="T64" s="64">
+      <c r="T64" s="43">
         <v>1.2656042496679947</v>
       </c>
-      <c r="U64" s="64">
+      <c r="U64" s="43">
         <v>1.354581673306773</v>
       </c>
-      <c r="V64" s="64">
+      <c r="V64" s="43">
         <v>1.2470119521912353</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="75">
+      <c r="A65" s="79"/>
+      <c r="B65" s="53">
         <v>3</v>
       </c>
-      <c r="C65" s="63">
+      <c r="C65" s="42">
         <v>0.85856079404466501</v>
       </c>
-      <c r="D65" s="64">
+      <c r="D65" s="43">
         <v>0.86062861869313478</v>
       </c>
-      <c r="E65" s="76">
+      <c r="E65" s="54">
         <v>0.79528535980148884</v>
       </c>
-      <c r="F65" s="65">
+      <c r="F65" s="44">
         <v>0.82051282051282048</v>
       </c>
-      <c r="G65" s="63">
+      <c r="G65" s="42">
         <v>1.3110008271298592</v>
       </c>
-      <c r="H65" s="64">
+      <c r="H65" s="43">
         <v>1.499172870140612</v>
       </c>
-      <c r="I65" s="64">
+      <c r="I65" s="43">
         <v>1.4532671629445821</v>
       </c>
-      <c r="J65" s="65">
+      <c r="J65" s="44">
         <v>1.410669975186104</v>
       </c>
-      <c r="K65" s="63">
+      <c r="K65" s="42">
         <v>0.87468982630272951</v>
       </c>
-      <c r="L65" s="64">
+      <c r="L65" s="43">
         <v>0.86228287841191065</v>
       </c>
-      <c r="M65" s="64">
+      <c r="M65" s="43">
         <v>0.92224979321753509</v>
       </c>
-      <c r="N65" s="65">
+      <c r="N65" s="44">
         <v>0.82878411910669969</v>
       </c>
-      <c r="O65" s="63">
+      <c r="O65" s="42">
         <v>1.2088502894954507</v>
       </c>
-      <c r="P65" s="64">
+      <c r="P65" s="43">
         <v>1.4789081885856079</v>
       </c>
-      <c r="Q65" s="64">
+      <c r="Q65" s="43">
         <v>1.2667493796526055</v>
       </c>
-      <c r="R65" s="65">
+      <c r="R65" s="44">
         <v>1.4028122415219189</v>
       </c>
-      <c r="S65" s="64">
+      <c r="S65" s="43">
         <v>1.4205955334987592</v>
       </c>
-      <c r="T65" s="64">
+      <c r="T65" s="43">
         <v>1.3502894954507858</v>
       </c>
-      <c r="U65" s="64">
+      <c r="U65" s="43">
         <v>1.444168734491315</v>
       </c>
-      <c r="V65" s="64">
+      <c r="V65" s="43">
         <v>1.4023986765922249</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="66"/>
-      <c r="B66" s="77">
+      <c r="A66" s="80"/>
+      <c r="B66" s="55">
         <v>4</v>
       </c>
-      <c r="C66" s="68">
+      <c r="C66" s="46">
         <v>1.2583470169677067</v>
       </c>
-      <c r="D66" s="69">
+      <c r="D66" s="47">
         <v>1.1379310344827587</v>
       </c>
-      <c r="E66" s="78">
+      <c r="E66" s="56">
         <v>1.19376026272578</v>
       </c>
-      <c r="F66" s="70">
+      <c r="F66" s="48">
         <v>1.1767925561029009</v>
       </c>
-      <c r="G66" s="68">
+      <c r="G66" s="46">
         <v>1.6146688560481666</v>
       </c>
-      <c r="H66" s="69">
+      <c r="H66" s="47">
         <v>1.6590038314176245</v>
       </c>
-      <c r="I66" s="69">
+      <c r="I66" s="47">
         <v>1.7000547345374932</v>
       </c>
-      <c r="J66" s="70">
+      <c r="J66" s="48">
         <v>1.7378215654077722</v>
       </c>
-      <c r="K66" s="68">
+      <c r="K66" s="46">
         <v>0.8308702791461412</v>
       </c>
-      <c r="L66" s="69">
+      <c r="L66" s="47">
         <v>0.87684729064039413</v>
       </c>
-      <c r="M66" s="69">
+      <c r="M66" s="47">
         <v>0.87684729064039413</v>
       </c>
-      <c r="N66" s="70">
+      <c r="N66" s="48">
         <v>0.87027914614121515</v>
       </c>
-      <c r="O66" s="68">
+      <c r="O66" s="46">
         <v>1.4285714285714286</v>
       </c>
-      <c r="P66" s="69">
+      <c r="P66" s="47">
         <v>2.1893814997263275</v>
       </c>
-      <c r="Q66" s="69">
+      <c r="Q66" s="47">
         <v>1.3842364532019704</v>
       </c>
-      <c r="R66" s="70">
+      <c r="R66" s="48">
         <v>1.8730158730158732</v>
       </c>
-      <c r="S66" s="69">
+      <c r="S66" s="47">
         <v>0.95949644225506292</v>
       </c>
-      <c r="T66" s="69">
+      <c r="T66" s="47">
         <v>0.94252873563218387</v>
       </c>
-      <c r="U66" s="69">
+      <c r="U66" s="47">
         <v>1.1335522714833062</v>
       </c>
-      <c r="V66" s="69">
+      <c r="V66" s="47">
         <v>1.142857142857143</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="79"/>
-      <c r="R67" s="79"/>
-      <c r="S67" s="79"/>
-      <c r="T67" s="79"/>
-      <c r="U67" s="79"/>
-      <c r="V67" s="79"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="57"/>
+      <c r="U67" s="57"/>
+      <c r="V67" s="57"/>
     </row>
     <row r="68" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="50" t="s">
+      <c r="B68" s="75"/>
+      <c r="C68" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="50" t="s">
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="50" t="s">
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="50" t="s">
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="80" t="s">
+      <c r="P68" s="74"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="T68" s="81" t="s">
+      <c r="T68" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="U68" s="79"/>
-      <c r="V68" s="79"/>
+      <c r="U68" s="57"/>
+      <c r="V68" s="57"/>
     </row>
     <row r="69" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="53" t="s">
+      <c r="B69" s="77"/>
+      <c r="C69" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="54" t="s">
+      <c r="E69" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="53" t="s">
+      <c r="G69" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H69" s="54" t="s">
+      <c r="H69" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I69" s="54" t="s">
+      <c r="I69" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J69" s="55" t="s">
+      <c r="J69" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="K69" s="53" t="s">
+      <c r="K69" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L69" s="54" t="s">
+      <c r="L69" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M69" s="54" t="s">
+      <c r="M69" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N69" s="55" t="s">
+      <c r="N69" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O69" s="53" t="s">
+      <c r="O69" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P69" s="54" t="s">
+      <c r="P69" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Q69" s="54" t="s">
+      <c r="Q69" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="R69" s="55" t="s">
+      <c r="R69" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="S69" s="82"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="79"/>
-      <c r="V69" s="79"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="57"/>
+      <c r="V69" s="57"/>
     </row>
     <row r="70" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="73">
+      <c r="B70" s="51">
         <v>0</v>
       </c>
-      <c r="C70" s="58">
+      <c r="C70" s="38">
         <v>3.1951640759930919</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="59">
+      <c r="E70" s="39">
         <v>3.1455094991364425</v>
       </c>
-      <c r="F70" s="60" t="s">
+      <c r="F70" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G70" s="58">
+      <c r="G70" s="38">
         <v>2.5794473229706392</v>
       </c>
-      <c r="H70" s="59" t="s">
+      <c r="H70" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I70" s="59">
+      <c r="I70" s="39">
         <v>2.6139896373056999</v>
       </c>
-      <c r="J70" s="60" t="s">
+      <c r="J70" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="K70" s="58">
+      <c r="K70" s="38">
         <v>2.493091537132988</v>
       </c>
-      <c r="L70" s="59" t="s">
+      <c r="L70" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="59">
+      <c r="M70" s="39">
         <v>2.2543177892918829</v>
       </c>
-      <c r="N70" s="60" t="s">
+      <c r="N70" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="O70" s="58">
+      <c r="O70" s="38">
         <v>2.0332469775474955</v>
       </c>
-      <c r="P70" s="59" t="s">
+      <c r="P70" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="Q70" s="59">
+      <c r="Q70" s="39">
         <v>1.7858376511226255</v>
       </c>
-      <c r="R70" s="60" t="s">
+      <c r="R70" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="S70" s="83">
+      <c r="S70" s="61">
         <v>1.9050086355785838</v>
       </c>
-      <c r="T70" s="59">
+      <c r="T70" s="39">
         <v>2.3159999999999998</v>
       </c>
-      <c r="U70" s="79"/>
-      <c r="V70" s="79"/>
+      <c r="U70" s="57"/>
+      <c r="V70" s="57"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="75">
+      <c r="A71" s="79"/>
+      <c r="B71" s="53">
         <v>1</v>
       </c>
-      <c r="C71" s="63">
+      <c r="C71" s="42">
         <v>1.7474115616911132</v>
       </c>
-      <c r="D71" s="64">
+      <c r="D71" s="43">
         <v>1.2068593615185503</v>
       </c>
-      <c r="E71" s="64">
+      <c r="E71" s="43">
         <v>1.6762295081967213</v>
       </c>
-      <c r="F71" s="65">
+      <c r="F71" s="44">
         <v>1.2560396893874031</v>
       </c>
-      <c r="G71" s="63">
+      <c r="G71" s="42">
         <v>1.3779119930974977</v>
       </c>
-      <c r="H71" s="64">
+      <c r="H71" s="43">
         <v>1.2620793787748059</v>
       </c>
-      <c r="I71" s="64">
+      <c r="I71" s="43">
         <v>1.3675582398619499</v>
       </c>
-      <c r="J71" s="65">
+      <c r="J71" s="44">
         <v>1.2556082830025883</v>
       </c>
-      <c r="K71" s="63">
+      <c r="K71" s="42">
         <v>1.4443485763589301</v>
       </c>
-      <c r="L71" s="64">
+      <c r="L71" s="43">
         <v>1.2750215703192407</v>
       </c>
-      <c r="M71" s="64">
+      <c r="M71" s="43">
         <v>1.3647540983606556</v>
       </c>
-      <c r="N71" s="65">
+      <c r="N71" s="44">
         <v>1.2599223468507335</v>
       </c>
-      <c r="O71" s="63">
+      <c r="O71" s="42">
         <v>1.4268766177739431</v>
       </c>
-      <c r="P71" s="64">
+      <c r="P71" s="43">
         <v>1.3462036238136323</v>
       </c>
-      <c r="Q71" s="64">
+      <c r="Q71" s="43">
         <v>1.4014236410698877</v>
       </c>
-      <c r="R71" s="65">
+      <c r="R71" s="44">
         <v>1.3134167385677309</v>
       </c>
-      <c r="S71" s="84">
+      <c r="S71" s="62">
         <v>1.3153580672993959</v>
       </c>
-      <c r="T71" s="64">
+      <c r="T71" s="43">
         <v>4.6360000000000001</v>
       </c>
-      <c r="U71" s="79"/>
-      <c r="V71" s="79"/>
+      <c r="U71" s="57"/>
+      <c r="V71" s="57"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="75">
+      <c r="A72" s="79"/>
+      <c r="B72" s="53">
         <v>2</v>
       </c>
-      <c r="C72" s="63">
+      <c r="C72" s="42">
         <v>1.9734395750332008</v>
       </c>
-      <c r="D72" s="64">
+      <c r="D72" s="43">
         <v>1.5528995130588756</v>
       </c>
-      <c r="E72" s="64">
+      <c r="E72" s="43">
         <v>1.8244798583444004</v>
       </c>
-      <c r="F72" s="65">
+      <c r="F72" s="44">
         <v>1.6173085436033645</v>
       </c>
-      <c r="G72" s="63">
+      <c r="G72" s="42">
         <v>1.2841965471447543</v>
       </c>
-      <c r="H72" s="64">
+      <c r="H72" s="43">
         <v>1.1874723328906598</v>
       </c>
-      <c r="I72" s="64">
+      <c r="I72" s="43">
         <v>1.2321823815847721</v>
       </c>
-      <c r="J72" s="65">
+      <c r="J72" s="44">
         <v>1.1624612660469233</v>
       </c>
-      <c r="K72" s="63">
+      <c r="K72" s="42">
         <v>1.3906595838866758</v>
       </c>
-      <c r="L72" s="64">
+      <c r="L72" s="43">
         <v>1.2791057990261179</v>
       </c>
-      <c r="M72" s="64">
+      <c r="M72" s="43">
         <v>1.3406374501992033</v>
       </c>
-      <c r="N72" s="65">
+      <c r="N72" s="44">
         <v>1.2290836653386454</v>
       </c>
-      <c r="O72" s="63">
+      <c r="O72" s="42">
         <v>1.3961930057547587</v>
       </c>
-      <c r="P72" s="64">
+      <c r="P72" s="43">
         <v>1.3176184152279771</v>
       </c>
-      <c r="Q72" s="64">
+      <c r="Q72" s="43">
         <v>1.3924302788844622</v>
       </c>
-      <c r="R72" s="65">
+      <c r="R72" s="44">
         <v>1.274457724656928</v>
       </c>
-      <c r="S72" s="84">
+      <c r="S72" s="62">
         <v>1.2366091190792385</v>
       </c>
-      <c r="T72" s="64">
+      <c r="T72" s="43">
         <v>4.5179999999999998</v>
       </c>
-      <c r="U72" s="79"/>
-      <c r="V72" s="79"/>
+      <c r="U72" s="57"/>
+      <c r="V72" s="57"/>
     </row>
     <row r="73" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="75">
+      <c r="A73" s="79"/>
+      <c r="B73" s="53">
         <v>3</v>
       </c>
-      <c r="C73" s="63">
+      <c r="C73" s="42">
         <v>3.387096774193548</v>
       </c>
-      <c r="D73" s="64">
+      <c r="D73" s="43">
         <v>2.705541770057899</v>
       </c>
-      <c r="E73" s="64">
+      <c r="E73" s="43">
         <v>2.8287841191066994</v>
       </c>
-      <c r="F73" s="65">
+      <c r="F73" s="44">
         <v>2.8705541770057899</v>
       </c>
-      <c r="G73" s="63">
+      <c r="G73" s="42">
         <v>1.4731182795698923</v>
       </c>
-      <c r="H73" s="64">
+      <c r="H73" s="43">
         <v>1.4164598842018195</v>
       </c>
-      <c r="I73" s="64">
+      <c r="I73" s="43">
         <v>1.3883374689826302</v>
       </c>
-      <c r="J73" s="65">
+      <c r="J73" s="44">
         <v>1.3329197684036391</v>
       </c>
-      <c r="K73" s="63">
+      <c r="K73" s="42">
         <v>1.8308519437551694</v>
       </c>
-      <c r="L73" s="64">
+      <c r="L73" s="43">
         <v>1.7336641852770884</v>
       </c>
-      <c r="M73" s="64">
+      <c r="M73" s="43">
         <v>1.7795698924731183</v>
       </c>
-      <c r="N73" s="65">
+      <c r="N73" s="44">
         <v>1.5885028949545079</v>
       </c>
-      <c r="O73" s="63">
+      <c r="O73" s="42">
         <v>1.7994210090984284</v>
       </c>
-      <c r="P73" s="64">
+      <c r="P73" s="43">
         <v>1.6600496277915633</v>
       </c>
-      <c r="Q73" s="64">
+      <c r="Q73" s="43">
         <v>1.849462365591398</v>
       </c>
-      <c r="R73" s="65">
+      <c r="R73" s="44">
         <v>1.5578990901571546</v>
       </c>
-      <c r="S73" s="84">
+      <c r="S73" s="62">
         <v>1.2084367245657568</v>
       </c>
-      <c r="T73" s="64">
+      <c r="T73" s="43">
         <v>2.4180000000000001</v>
       </c>
-      <c r="U73" s="79"/>
-      <c r="V73" s="79"/>
+      <c r="U73" s="57"/>
+      <c r="V73" s="57"/>
     </row>
     <row r="74" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="66"/>
-      <c r="B74" s="77">
+      <c r="A74" s="80"/>
+      <c r="B74" s="55">
         <v>4</v>
       </c>
-      <c r="C74" s="68">
+      <c r="C74" s="46">
         <v>3.7837985769020253</v>
       </c>
-      <c r="D74" s="69">
+      <c r="D74" s="47">
         <v>3.1921182266009853</v>
       </c>
-      <c r="E74" s="69">
+      <c r="E74" s="47">
         <v>2.9759168035030106</v>
       </c>
-      <c r="F74" s="70">
+      <c r="F74" s="48">
         <v>3.4028461959496443</v>
       </c>
-      <c r="G74" s="68">
+      <c r="G74" s="46">
         <v>1.2183908045977012</v>
       </c>
-      <c r="H74" s="69">
+      <c r="H74" s="47">
         <v>1.5090311986863711</v>
       </c>
-      <c r="I74" s="69">
+      <c r="I74" s="47">
         <v>1.1746031746031746</v>
       </c>
-      <c r="J74" s="70">
+      <c r="J74" s="48">
         <v>1.4564860426929394</v>
       </c>
-      <c r="K74" s="68">
+      <c r="K74" s="46">
         <v>1.7772304324028463</v>
       </c>
-      <c r="L74" s="69">
+      <c r="L74" s="47">
         <v>1.8615216201423097</v>
       </c>
-      <c r="M74" s="69">
+      <c r="M74" s="47">
         <v>1.7991242474001095</v>
       </c>
-      <c r="N74" s="70">
+      <c r="N74" s="48">
         <v>1.734537493158183</v>
       </c>
-      <c r="O74" s="68">
+      <c r="O74" s="46">
         <v>1.6726874657909141</v>
       </c>
-      <c r="P74" s="69">
+      <c r="P74" s="47">
         <v>1.6223316912972086</v>
       </c>
-      <c r="Q74" s="69">
+      <c r="Q74" s="47">
         <v>1.7564313081554461</v>
       </c>
-      <c r="R74" s="70">
+      <c r="R74" s="48">
         <v>1.524904214559387</v>
       </c>
-      <c r="S74" s="85">
+      <c r="S74" s="63">
         <v>0.98795840175150518</v>
       </c>
-      <c r="T74" s="69">
+      <c r="T74" s="47">
         <v>1.827</v>
       </c>
-      <c r="U74" s="79"/>
-      <c r="V74" s="79"/>
+      <c r="U74" s="57"/>
+      <c r="V74" s="57"/>
     </row>
     <row r="76" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="67"/>
+      <c r="N76" s="67"/>
+      <c r="O76" s="67"/>
     </row>
     <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="38" t="s">
+      <c r="B77" s="69"/>
+      <c r="C77" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="39"/>
-      <c r="E77" s="37" t="s">
+      <c r="D77" s="69"/>
+      <c r="E77" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="39"/>
-      <c r="G77" s="37" t="s">
+      <c r="F77" s="69"/>
+      <c r="G77" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H77" s="39"/>
-      <c r="I77" s="37" t="s">
+      <c r="H77" s="69"/>
+      <c r="I77" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="J77" s="39"/>
-      <c r="K77" s="38" t="s">
+      <c r="J77" s="69"/>
+      <c r="K77" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="L77" s="39"/>
-      <c r="M77" s="37" t="s">
+      <c r="L77" s="69"/>
+      <c r="M77" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="N77" s="39"/>
-      <c r="O77" s="37" t="s">
+      <c r="N77" s="69"/>
+      <c r="O77" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="42"/>
+      <c r="B78" s="72"/>
       <c r="C78" s="6" t="s">
         <v>2</v>
       </c>
@@ -4810,10 +6100,10 @@
       <c r="N78" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O78" s="40"/>
+      <c r="O78" s="71"/>
     </row>
     <row r="79" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B79" s="21">
@@ -4848,7 +6138,7 @@
       </c>
     </row>
     <row r="80" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="23">
         <v>1</v>
       </c>
@@ -4893,7 +6183,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="23">
         <v>2</v>
       </c>
@@ -4938,7 +6228,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="23">
         <v>3</v>
       </c>
@@ -4983,7 +6273,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="25">
         <v>4</v>
       </c>
@@ -5028,62 +6318,62 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
-      <c r="O85" s="41"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="67"/>
+      <c r="M85" s="67"/>
+      <c r="N85" s="67"/>
+      <c r="O85" s="67"/>
     </row>
     <row r="86" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="38" t="s">
+      <c r="B86" s="69"/>
+      <c r="C86" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="39"/>
-      <c r="E86" s="37" t="s">
+      <c r="D86" s="69"/>
+      <c r="E86" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="39"/>
-      <c r="G86" s="37" t="s">
+      <c r="F86" s="69"/>
+      <c r="G86" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H86" s="39"/>
-      <c r="I86" s="37" t="s">
+      <c r="H86" s="69"/>
+      <c r="I86" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="J86" s="39"/>
-      <c r="K86" s="38" t="s">
+      <c r="J86" s="69"/>
+      <c r="K86" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="L86" s="39"/>
-      <c r="M86" s="37" t="s">
+      <c r="L86" s="69"/>
+      <c r="M86" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="N86" s="39"/>
-      <c r="O86" s="37" t="s">
+      <c r="N86" s="69"/>
+      <c r="O86" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="42"/>
+      <c r="B87" s="72"/>
       <c r="C87" s="6" t="s">
         <v>2</v>
       </c>
@@ -5120,10 +6410,10 @@
       <c r="N87" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O87" s="40"/>
+      <c r="O87" s="71"/>
     </row>
     <row r="88" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B88" s="21">
@@ -5162,7 +6452,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="86"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="23">
         <v>1</v>
       </c>
@@ -5207,7 +6497,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="23">
         <v>2</v>
       </c>
@@ -5252,7 +6542,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="86"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="23">
         <v>3</v>
       </c>
@@ -5297,7 +6587,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="25">
         <v>4</v>
       </c>
@@ -5343,6 +6633,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="A34:S34"/>
+    <mergeCell ref="A43:S43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S52:V52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="O68:R68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="O86:O87"/>
     <mergeCell ref="A88:A92"/>
     <mergeCell ref="A76:O76"/>
     <mergeCell ref="C77:D77"/>
@@ -5359,101 +6725,62 @@
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="M86:N86"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="O68:R68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="S52:V52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="S60:V60"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="A34:S34"/>
-    <mergeCell ref="A43:S43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:V8 C13:V16 C21:S24 C20 S20 Q20 O20 M20 K20 I20 G20 E20 C12 U12 S12 Q12 O12 M12 K12 I12 G12 E12 C4 U4 S4 Q4 O4 M4 K4 I4 G4 E4">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:V58 C63:V66 C71:S74 C70 S70 Q70 O70 M70 K70 I70 G70 E70 C62 U62 S62 Q62 O62 M62 K62 I62 G62 E62 C54 U54 S54 Q54 O54 M54 K54 I54 G54 E54">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O79:O83">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:J32">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:R41 C37 Q37 O37 M37 K37 I37 G37 E37">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:R50 C46 Q46 O46 M46 K46 I46 G46 E46">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80:N83 C79 M79 K79 I79 G79 E79">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:N92 C88 M88 K88 I88 G88 E88">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5479,62 +6806,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
     </row>
     <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="37" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="37" t="s">
+      <c r="L2" s="69"/>
+      <c r="M2" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37" t="s">
+      <c r="N2" s="69"/>
+      <c r="O2" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
@@ -5571,10 +6898,10 @@
       <c r="N3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="40"/>
+      <c r="O3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="21">
@@ -5609,7 +6936,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="23">
         <v>1</v>
       </c>
@@ -5654,7 +6981,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="23">
         <v>2</v>
       </c>
@@ -5699,7 +7026,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="23">
         <v>3</v>
       </c>
@@ -5744,7 +7071,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="25">
         <v>4</v>
       </c>
@@ -5789,62 +7116,62 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
     </row>
     <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="69"/>
+      <c r="E11" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="37" t="s">
+      <c r="H11" s="69"/>
+      <c r="I11" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="38" t="s">
+      <c r="J11" s="69"/>
+      <c r="K11" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="39"/>
-      <c r="M11" s="37" t="s">
+      <c r="L11" s="69"/>
+      <c r="M11" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="37" t="s">
+      <c r="N11" s="69"/>
+      <c r="O11" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
@@ -5881,10 +7208,10 @@
       <c r="N12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="40"/>
+      <c r="O12" s="71"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="21">
@@ -5923,7 +7250,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="23">
         <v>1</v>
       </c>
@@ -5968,7 +7295,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="23">
         <v>2</v>
       </c>
@@ -6013,7 +7340,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="23">
         <v>3</v>
       </c>
@@ -6058,7 +7385,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="25">
         <v>4</v>
       </c>
@@ -6104,6 +7431,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A10:O10"/>
@@ -6120,15 +7453,9 @@
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="O4:O8">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6148,23 +7475,23 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
@@ -6464,23 +7791,23 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
